--- a/document/Release GUIDE.xlsx
+++ b/document/Release GUIDE.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>Chức năng mới</t>
   </si>
@@ -206,6 +207,66 @@
   </si>
   <si>
     <t>Hiện tại chỉ có bộ phận Trucking nhập được thông tin này, nếu muốn bộ phận khác cũng nhập được chị báo em biết</t>
+  </si>
+  <si>
+    <t>Điều chỉnh:</t>
+  </si>
+  <si>
+    <t>Manifest</t>
+  </si>
+  <si>
+    <t>13/4/2015</t>
+  </si>
+  <si>
+    <t>Thông quan</t>
+  </si>
+  <si>
+    <t>Nếu hàng FCL thì ko hiện số khối; thay bằng số CONT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Không chọn giá trị mặc định cho Hãng tàu </t>
+  </si>
+  <si>
+    <t>Hãng tàu sửa thành Hãng tàu/Đại lý</t>
+  </si>
+  <si>
+    <t>Cho Manifest quyền thêm bớt hãng tàu/nhà thầu</t>
+  </si>
+  <si>
+    <t>Hàng xuất ko cần in biên bảng giao hàng</t>
+  </si>
+  <si>
+    <t>FCL ko cần hiện kho hàng lẻ</t>
+  </si>
+  <si>
+    <t>Thời gian thanh lý cho chọn ngày và giờ</t>
+  </si>
+  <si>
+    <t>Vận tải</t>
+  </si>
+  <si>
+    <t>Tên tàu số chuyến được tự động load qua trucking</t>
+  </si>
+  <si>
+    <t>Chi phí: được chọn sẽ thanh toán cho nhà thầu nào</t>
+  </si>
+  <si>
+    <t>Trucking</t>
+  </si>
+  <si>
+    <t>Hiện thêm ngày đi và ngày đến</t>
+  </si>
+  <si>
+    <t>Phần chung</t>
+  </si>
+  <si>
+    <t>Cho phép attach file theo nhiều định dạng khác nhau</t>
+  </si>
+  <si>
+    <t>Loại cont cũng được import từ excel (cột thứ 4)</t>
+  </si>
+  <si>
+    <t>Bảng chi phí đã dành riêng cho 1 cont/nhà thầu, ko cần phải thêm col này</t>
   </si>
 </sst>
 </file>
@@ -308,11 +369,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,7 +699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -701,7 +762,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -803,18 +864,18 @@
       </c>
     </row>
     <row r="40" spans="2:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="7" t="s">
+      <c r="C40" s="8"/>
+      <c r="D40" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
+      <c r="E40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
@@ -829,4 +890,126 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/document/Release GUIDE.xlsx
+++ b/document/Release GUIDE.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="26-4" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -896,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,5 +1012,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>